--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H2">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I2">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J2">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>439.1677356980011</v>
+        <v>566.5240693108789</v>
       </c>
       <c r="R2">
-        <v>439.1677356980011</v>
+        <v>5098.71662379791</v>
       </c>
       <c r="S2">
-        <v>0.1499003178252255</v>
+        <v>0.1596128816723334</v>
       </c>
       <c r="T2">
-        <v>0.1499003178252255</v>
+        <v>0.1596128816723334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H3">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I3">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J3">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>235.7448259606922</v>
+        <v>236.0570973298346</v>
       </c>
       <c r="R3">
-        <v>235.7448259606922</v>
+        <v>2124.513875968512</v>
       </c>
       <c r="S3">
-        <v>0.08046634910689567</v>
+        <v>0.06650688926571591</v>
       </c>
       <c r="T3">
-        <v>0.08046634910689567</v>
+        <v>0.06650688926571593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H4">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I4">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J4">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>19.10134941757041</v>
+        <v>19.65071278205845</v>
       </c>
       <c r="R4">
-        <v>19.10134941757041</v>
+        <v>176.856415038526</v>
       </c>
       <c r="S4">
-        <v>0.006519828566262145</v>
+        <v>0.005536405360278793</v>
       </c>
       <c r="T4">
-        <v>0.006519828566262145</v>
+        <v>0.005536405360278793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.60159858167491</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H5">
-        <v>85.60159858167491</v>
+        <v>257.114426</v>
       </c>
       <c r="I5">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J5">
-        <v>0.2433399268003892</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>18.90682323761972</v>
+        <v>18.415049418972</v>
       </c>
       <c r="R5">
-        <v>18.90682323761972</v>
+        <v>165.735444770748</v>
       </c>
       <c r="S5">
-        <v>0.00645343130200595</v>
+        <v>0.005188268712882571</v>
       </c>
       <c r="T5">
-        <v>0.00645343130200595</v>
+        <v>0.005188268712882571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>254.799415439154</v>
+        <v>85.70480866666666</v>
       </c>
       <c r="H6">
-        <v>254.799415439154</v>
+        <v>257.114426</v>
       </c>
       <c r="I6">
-        <v>0.7243190796558198</v>
+        <v>0.2432597358378337</v>
       </c>
       <c r="J6">
-        <v>0.7243190796558198</v>
+        <v>0.2432597358378336</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>1307.214867358124</v>
+        <v>22.77019640790778</v>
       </c>
       <c r="R6">
-        <v>1307.214867358124</v>
+        <v>204.93176767117</v>
       </c>
       <c r="S6">
-        <v>0.4461892533416696</v>
+        <v>0.006415290826622931</v>
       </c>
       <c r="T6">
-        <v>0.4461892533416696</v>
+        <v>0.006415290826622933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H7">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I7">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J7">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>701.7117068237602</v>
+        <v>1685.030908482121</v>
       </c>
       <c r="R7">
-        <v>701.7117068237602</v>
+        <v>15165.27817633909</v>
       </c>
       <c r="S7">
-        <v>0.2395139700036983</v>
+        <v>0.4747417692895835</v>
       </c>
       <c r="T7">
-        <v>0.2395139700036983</v>
+        <v>0.4747417692895836</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H8">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I8">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J8">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>56.85656280182911</v>
+        <v>702.1122785677653</v>
       </c>
       <c r="R8">
-        <v>56.85656280182911</v>
+        <v>6319.010507109888</v>
       </c>
       <c r="S8">
-        <v>0.01940674631049148</v>
+        <v>0.1978135971805163</v>
       </c>
       <c r="T8">
-        <v>0.01940674631049148</v>
+        <v>0.1978135971805164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>254.799415439154</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H9">
-        <v>254.799415439154</v>
+        <v>764.743774</v>
       </c>
       <c r="I9">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J9">
-        <v>0.7243190796558198</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>56.27754140783311</v>
+        <v>58.44775218774156</v>
       </c>
       <c r="R9">
-        <v>56.27754140783311</v>
+        <v>526.029769689674</v>
       </c>
       <c r="S9">
-        <v>0.01920910999996048</v>
+        <v>0.01646710997699302</v>
       </c>
       <c r="T9">
-        <v>0.01920910999996048</v>
+        <v>0.01646710997699303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.376845483064</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H10">
-        <v>11.376845483064</v>
+        <v>764.743774</v>
       </c>
       <c r="I10">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J10">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>58.36740847095391</v>
+        <v>54.772478581428</v>
       </c>
       <c r="R10">
-        <v>58.36740847095391</v>
+        <v>492.952307232852</v>
       </c>
       <c r="S10">
-        <v>0.0199224404919566</v>
+        <v>0.01543163585856493</v>
       </c>
       <c r="T10">
-        <v>0.0199224404919566</v>
+        <v>0.01543163585856494</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.376845483064</v>
+        <v>254.9145913333333</v>
       </c>
       <c r="H11">
-        <v>11.376845483064</v>
+        <v>764.743774</v>
       </c>
       <c r="I11">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="J11">
-        <v>0.03234099354379095</v>
+        <v>0.7235353198224201</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>31.33156977001553</v>
+        <v>67.72613348309221</v>
       </c>
       <c r="R11">
-        <v>31.33156977001553</v>
+        <v>609.53520134783</v>
       </c>
       <c r="S11">
-        <v>0.01069434724985862</v>
+        <v>0.01908120751676221</v>
       </c>
       <c r="T11">
-        <v>0.01069434724985862</v>
+        <v>0.01908120751676221</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>11.376845483064</v>
+        <v>0.01628533333333333</v>
       </c>
       <c r="H12">
-        <v>11.376845483064</v>
+        <v>0.048856</v>
       </c>
       <c r="I12">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="J12">
-        <v>0.03234099354379095</v>
+        <v>4.622337936842642E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>2.538657039615546</v>
+        <v>0.1076489575511111</v>
       </c>
       <c r="R12">
-        <v>2.538657039615546</v>
+        <v>0.96884061796</v>
       </c>
       <c r="S12">
-        <v>0.0008665151516260362</v>
+        <v>3.032909148000712E-05</v>
       </c>
       <c r="T12">
-        <v>0.0008665151516260362</v>
+        <v>3.032909148000713E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.048856</v>
+      </c>
+      <c r="I13">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J13">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.754304</v>
+      </c>
+      <c r="N13">
+        <v>8.262912</v>
+      </c>
+      <c r="O13">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P13">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q13">
+        <v>0.04485475874133333</v>
+      </c>
+      <c r="R13">
+        <v>0.403692828672</v>
+      </c>
+      <c r="S13">
+        <v>1.263741063663933E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.263741063663934E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.048856</v>
+      </c>
+      <c r="I14">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J14">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.687851</v>
+      </c>
+      <c r="O14">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P14">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q14">
+        <v>0.003733960939555555</v>
+      </c>
+      <c r="R14">
+        <v>0.033605648456</v>
+      </c>
+      <c r="S14">
+        <v>1.052008728136401E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.052008728136401E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.048856</v>
+      </c>
+      <c r="I15">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J15">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.214866</v>
+      </c>
+      <c r="N15">
+        <v>0.644598</v>
+      </c>
+      <c r="O15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q15">
+        <v>0.003499164432</v>
+      </c>
+      <c r="R15">
+        <v>0.031492479888</v>
+      </c>
+      <c r="S15">
+        <v>9.858569983023467E-07</v>
+      </c>
+      <c r="T15">
+        <v>9.85856998302347E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01628533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.048856</v>
+      </c>
+      <c r="I16">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.622337936842642E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.797045</v>
+      </c>
+      <c r="O16">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P16">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q16">
+        <v>0.004326714502222222</v>
+      </c>
+      <c r="R16">
+        <v>0.03894043052</v>
+      </c>
+      <c r="S16">
+        <v>1.219011525341211E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.219011525341211E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.342475</v>
+      </c>
+      <c r="I17">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J17">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.830535</v>
+      </c>
+      <c r="O17">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P17">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q17">
+        <v>0.7546069415694446</v>
+      </c>
+      <c r="R17">
+        <v>6.791462474125001</v>
+      </c>
+      <c r="S17">
+        <v>0.0002126034797080285</v>
+      </c>
+      <c r="T17">
+        <v>0.0002126034797080285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.342475</v>
+      </c>
+      <c r="I18">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J18">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P18">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q18">
+        <v>0.3144267541333334</v>
+      </c>
+      <c r="R18">
+        <v>2.8298407872</v>
+      </c>
+      <c r="S18">
+        <v>8.858681037708891E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.858681037708894E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>11.376845483064</v>
-      </c>
-      <c r="H13">
-        <v>11.376845483064</v>
-      </c>
-      <c r="I13">
-        <v>0.03234099354379095</v>
-      </c>
-      <c r="J13">
-        <v>0.03234099354379095</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q13">
-        <v>2.512803617151734</v>
-      </c>
-      <c r="R13">
-        <v>2.512803617151734</v>
-      </c>
-      <c r="S13">
-        <v>0.0008576906503496942</v>
-      </c>
-      <c r="T13">
-        <v>0.0008576906503496942</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.342475</v>
+      </c>
+      <c r="I19">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J19">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.687851</v>
+      </c>
+      <c r="O19">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P19">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q19">
+        <v>0.02617464124722222</v>
+      </c>
+      <c r="R19">
+        <v>0.235571771225</v>
+      </c>
+      <c r="S19">
+        <v>7.374461461611959E-06</v>
+      </c>
+      <c r="T19">
+        <v>7.374461461611959E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.342475</v>
+      </c>
+      <c r="I20">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J20">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214866</v>
+      </c>
+      <c r="N20">
+        <v>0.644598</v>
+      </c>
+      <c r="O20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q20">
+        <v>0.02452874445</v>
+      </c>
+      <c r="R20">
+        <v>0.22075870005</v>
+      </c>
+      <c r="S20">
+        <v>6.910745363795568E-06</v>
+      </c>
+      <c r="T20">
+        <v>6.910745363795568E-06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1141583333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.342475</v>
+      </c>
+      <c r="I21">
+        <v>0.0003240206289749845</v>
+      </c>
+      <c r="J21">
+        <v>0.0003240206289749844</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.797045</v>
+      </c>
+      <c r="O21">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P21">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q21">
+        <v>0.03032977626388889</v>
+      </c>
+      <c r="R21">
+        <v>0.272967986375</v>
+      </c>
+      <c r="S21">
+        <v>8.545132064459459E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.545132064459459E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H22">
+        <v>34.704778</v>
+      </c>
+      <c r="I22">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J22">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N22">
+        <v>19.830535</v>
+      </c>
+      <c r="O22">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P22">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q22">
+        <v>76.4682571995811</v>
+      </c>
+      <c r="R22">
+        <v>688.21431479623</v>
+      </c>
+      <c r="S22">
+        <v>0.02154421947673445</v>
+      </c>
+      <c r="T22">
+        <v>0.02154421947673446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H23">
+        <v>34.704778</v>
+      </c>
+      <c r="I23">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J23">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P23">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q23">
+        <v>31.86250295483733</v>
+      </c>
+      <c r="R23">
+        <v>286.762526593536</v>
+      </c>
+      <c r="S23">
+        <v>0.008976963538550162</v>
+      </c>
+      <c r="T23">
+        <v>0.008976963538550166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H24">
+        <v>34.704778</v>
+      </c>
+      <c r="I24">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J24">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.687851</v>
+      </c>
+      <c r="O24">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P24">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q24">
+        <v>2.652412916897555</v>
+      </c>
+      <c r="R24">
+        <v>23.871716252078</v>
+      </c>
+      <c r="S24">
+        <v>0.0007472926429514519</v>
+      </c>
+      <c r="T24">
+        <v>0.000747292642951452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H25">
+        <v>34.704778</v>
+      </c>
+      <c r="I25">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J25">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.214866</v>
+      </c>
+      <c r="N25">
+        <v>0.644598</v>
+      </c>
+      <c r="O25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P25">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q25">
+        <v>2.485625609916</v>
+      </c>
+      <c r="R25">
+        <v>22.370630489244</v>
+      </c>
+      <c r="S25">
+        <v>0.0007003018721514107</v>
+      </c>
+      <c r="T25">
+        <v>0.0007003018721514108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.56825933333333</v>
+      </c>
+      <c r="H26">
+        <v>34.704778</v>
+      </c>
+      <c r="I26">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="J26">
+        <v>0.03283470033140288</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.797045</v>
+      </c>
+      <c r="O26">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P26">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q26">
+        <v>3.073474420112221</v>
+      </c>
+      <c r="R26">
+        <v>27.66126978101</v>
+      </c>
+      <c r="S26">
+        <v>0.0008659228010153943</v>
+      </c>
+      <c r="T26">
+        <v>0.0008659228010153945</v>
       </c>
     </row>
   </sheetData>
